--- a/data/outputs/OR_elsevier/62.xlsx
+++ b/data/outputs/OR_elsevier/62.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS181"/>
+  <dimension ref="A1:BU181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,6 +722,16 @@
           <t>eid</t>
         </is>
       </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>views</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>citations</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -941,6 +951,12 @@
           <t>2-s2.0-84926194915</t>
         </is>
       </c>
+      <c r="BT2" t="n">
+        <v>10867</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>155</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1154,6 +1170,12 @@
           <t>2-s2.0-84922577163</t>
         </is>
       </c>
+      <c r="BT3" t="n">
+        <v>4287</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>125</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1363,6 +1385,12 @@
           <t>2-s2.0-84961292059</t>
         </is>
       </c>
+      <c r="BT4" t="n">
+        <v>5837</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>99</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1572,6 +1600,12 @@
           <t>2-s2.0-84940644230</t>
         </is>
       </c>
+      <c r="BT5" t="n">
+        <v>1959</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1791,6 +1825,12 @@
           <t>2-s2.0-84913557898</t>
         </is>
       </c>
+      <c r="BT6" t="n">
+        <v>4453</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>79</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2010,6 +2050,12 @@
           <t>2-s2.0-84922759172</t>
         </is>
       </c>
+      <c r="BT7" t="n">
+        <v>3063</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>77</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2219,6 +2265,12 @@
           <t>2-s2.0-84913583779</t>
         </is>
       </c>
+      <c r="BT8" t="n">
+        <v>2643</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2430,6 +2482,12 @@
           <t>2-s2.0-84945306176</t>
         </is>
       </c>
+      <c r="BT9" t="n">
+        <v>4799</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2648,6 +2706,12 @@
         <is>
           <t>2-s2.0-84947492807</t>
         </is>
+      </c>
+      <c r="BT10" t="n">
+        <v>5050</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="11">
@@ -2854,6 +2918,12 @@
           <t>2-s2.0-84936930779</t>
         </is>
       </c>
+      <c r="BT11" t="n">
+        <v>2854</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3063,6 +3133,12 @@
           <t>2-s2.0-84919932747</t>
         </is>
       </c>
+      <c r="BT12" t="n">
+        <v>2492</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3276,6 +3352,12 @@
           <t>2-s2.0-84911944449</t>
         </is>
       </c>
+      <c r="BT13" t="n">
+        <v>2515</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3495,6 +3577,12 @@
           <t>2-s2.0-84913553830</t>
         </is>
       </c>
+      <c r="BT14" t="n">
+        <v>2551</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3712,6 +3800,12 @@
           <t>2-s2.0-84949115672</t>
         </is>
       </c>
+      <c r="BT15" t="n">
+        <v>1771</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3931,6 +4025,12 @@
           <t>2-s2.0-84930938271</t>
         </is>
       </c>
+      <c r="BT16" t="n">
+        <v>1273</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4144,6 +4244,12 @@
           <t>2-s2.0-84929415484</t>
         </is>
       </c>
+      <c r="BT17" t="n">
+        <v>2074</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4363,6 +4469,12 @@
           <t>2-s2.0-84920874152</t>
         </is>
       </c>
+      <c r="BT18" t="n">
+        <v>2531</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4566,6 +4678,12 @@
           <t>2-s2.0-84927743600</t>
         </is>
       </c>
+      <c r="BT19" t="n">
+        <v>3093</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4763,6 +4881,12 @@
           <t>2-s2.0-84922976088</t>
         </is>
       </c>
+      <c r="BT20" t="n">
+        <v>1993</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4972,6 +5096,12 @@
           <t>2-s2.0-84911404337</t>
         </is>
       </c>
+      <c r="BT21" t="n">
+        <v>2497</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5189,6 +5319,12 @@
           <t>2-s2.0-84911947285</t>
         </is>
       </c>
+      <c r="BT22" t="n">
+        <v>3014</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5404,6 +5540,12 @@
           <t>2-s2.0-84925867906</t>
         </is>
       </c>
+      <c r="BT23" t="n">
+        <v>2141</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5615,6 +5757,12 @@
           <t>2-s2.0-84923016608</t>
         </is>
       </c>
+      <c r="BT24" t="n">
+        <v>4385</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5830,6 +5978,12 @@
           <t>2-s2.0-84923045781</t>
         </is>
       </c>
+      <c r="BT25" t="n">
+        <v>1380</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6039,6 +6193,12 @@
           <t>2-s2.0-84947495627</t>
         </is>
       </c>
+      <c r="BT26" t="n">
+        <v>4270</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6261,6 +6421,12 @@
         <is>
           <t>2-s2.0-84947493661</t>
         </is>
+      </c>
+      <c r="BT27" t="n">
+        <v>2554</v>
+      </c>
+      <c r="BU27" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="28">
@@ -6479,6 +6645,12 @@
           <t>2-s2.0-84937954462</t>
         </is>
       </c>
+      <c r="BT28" t="n">
+        <v>2227</v>
+      </c>
+      <c r="BU28" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6695,6 +6867,12 @@
         <is>
           <t>2-s2.0-84916910893</t>
         </is>
+      </c>
+      <c r="BT29" t="n">
+        <v>3144</v>
+      </c>
+      <c r="BU29" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="30">
@@ -6899,6 +7077,12 @@
           <t>2-s2.0-84947488888</t>
         </is>
       </c>
+      <c r="BT30" t="n">
+        <v>3464</v>
+      </c>
+      <c r="BU30" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7125,6 +7309,12 @@
         <is>
           <t>2-s2.0-84947491126</t>
         </is>
+      </c>
+      <c r="BT31" t="n">
+        <v>1294</v>
+      </c>
+      <c r="BU31" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="32">
@@ -7350,6 +7540,12 @@
         <is>
           <t>2-s2.0-84947486810</t>
         </is>
+      </c>
+      <c r="BT32" t="n">
+        <v>3567</v>
+      </c>
+      <c r="BU32" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="33">
@@ -7568,6 +7764,12 @@
           <t>2-s2.0-84938863337</t>
         </is>
       </c>
+      <c r="BT33" t="n">
+        <v>3849</v>
+      </c>
+      <c r="BU33" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7777,6 +7979,12 @@
           <t>2-s2.0-84930941263</t>
         </is>
       </c>
+      <c r="BT34" t="n">
+        <v>2261</v>
+      </c>
+      <c r="BU34" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7986,6 +8194,12 @@
           <t>2-s2.0-84920727038</t>
         </is>
       </c>
+      <c r="BT35" t="n">
+        <v>2323</v>
+      </c>
+      <c r="BU35" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8203,6 +8417,12 @@
           <t>2-s2.0-84946594198</t>
         </is>
       </c>
+      <c r="BT36" t="n">
+        <v>2198</v>
+      </c>
+      <c r="BU36" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8414,6 +8634,12 @@
           <t>2-s2.0-84961620776</t>
         </is>
       </c>
+      <c r="BT37" t="n">
+        <v>3838</v>
+      </c>
+      <c r="BU37" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8629,6 +8855,12 @@
           <t>2-s2.0-84926429454</t>
         </is>
       </c>
+      <c r="BT38" t="n">
+        <v>2681</v>
+      </c>
+      <c r="BU38" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8834,6 +9066,12 @@
           <t>2-s2.0-84920989056</t>
         </is>
       </c>
+      <c r="BT39" t="n">
+        <v>2726</v>
+      </c>
+      <c r="BU39" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -9051,6 +9289,12 @@
           <t>2-s2.0-84945127157</t>
         </is>
       </c>
+      <c r="BT40" t="n">
+        <v>1980</v>
+      </c>
+      <c r="BU40" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9270,6 +9514,12 @@
           <t>2-s2.0-84940664729</t>
         </is>
       </c>
+      <c r="BT41" t="n">
+        <v>5593</v>
+      </c>
+      <c r="BU41" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9481,6 +9731,12 @@
           <t>2-s2.0-84928153185</t>
         </is>
       </c>
+      <c r="BT42" t="n">
+        <v>1923</v>
+      </c>
+      <c r="BU42" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9698,6 +9954,12 @@
           <t>2-s2.0-84911438688</t>
         </is>
       </c>
+      <c r="BT43" t="n">
+        <v>1945</v>
+      </c>
+      <c r="BU43" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9907,6 +10169,12 @@
           <t>2-s2.0-84947485080</t>
         </is>
       </c>
+      <c r="BT44" t="n">
+        <v>1643</v>
+      </c>
+      <c r="BU44" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -10124,6 +10392,12 @@
           <t>2-s2.0-84929301565</t>
         </is>
       </c>
+      <c r="BT45" t="n">
+        <v>2323</v>
+      </c>
+      <c r="BU45" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10331,6 +10605,12 @@
           <t>2-s2.0-84947487314</t>
         </is>
       </c>
+      <c r="BT46" t="n">
+        <v>2062</v>
+      </c>
+      <c r="BU46" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10550,6 +10830,12 @@
           <t>2-s2.0-84930947283</t>
         </is>
       </c>
+      <c r="BT47" t="n">
+        <v>1493</v>
+      </c>
+      <c r="BU47" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10769,6 +11055,12 @@
           <t>2-s2.0-84910647483</t>
         </is>
       </c>
+      <c r="BT48" t="n">
+        <v>1866</v>
+      </c>
+      <c r="BU48" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -10992,6 +11284,12 @@
           <t>2-s2.0-84947490868</t>
         </is>
       </c>
+      <c r="BT49" t="n">
+        <v>3156</v>
+      </c>
+      <c r="BU49" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -11209,6 +11507,12 @@
           <t>2-s2.0-84941652479</t>
         </is>
       </c>
+      <c r="BT50" t="n">
+        <v>3075</v>
+      </c>
+      <c r="BU50" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11431,6 +11735,12 @@
         <is>
           <t>2-s2.0-84947490667</t>
         </is>
+      </c>
+      <c r="BT51" t="n">
+        <v>2192</v>
+      </c>
+      <c r="BU51" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="52">
@@ -11647,6 +11957,12 @@
           <t>2-s2.0-84929578110</t>
         </is>
       </c>
+      <c r="BT52" t="n">
+        <v>4103</v>
+      </c>
+      <c r="BU52" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11864,6 +12180,12 @@
           <t>2-s2.0-84925821379</t>
         </is>
       </c>
+      <c r="BT53" t="n">
+        <v>1658</v>
+      </c>
+      <c r="BU53" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -12082,6 +12404,12 @@
         <is>
           <t>2-s2.0-84956629417</t>
         </is>
+      </c>
+      <c r="BT54" t="n">
+        <v>2152</v>
+      </c>
+      <c r="BU54" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="55">
@@ -12300,6 +12628,12 @@
           <t>2-s2.0-84929074896</t>
         </is>
       </c>
+      <c r="BT55" t="n">
+        <v>1966</v>
+      </c>
+      <c r="BU55" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12517,6 +12851,12 @@
           <t>2-s2.0-84930194974</t>
         </is>
       </c>
+      <c r="BT56" t="n">
+        <v>1785</v>
+      </c>
+      <c r="BU56" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12726,6 +13066,12 @@
           <t>2-s2.0-84921624874</t>
         </is>
       </c>
+      <c r="BT57" t="n">
+        <v>1899</v>
+      </c>
+      <c r="BU57" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -12939,6 +13285,12 @@
           <t>2-s2.0-84911431343</t>
         </is>
       </c>
+      <c r="BT58" t="n">
+        <v>2490</v>
+      </c>
+      <c r="BU58" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -13171,6 +13523,12 @@
         <is>
           <t>2-s2.0-84947494851</t>
         </is>
+      </c>
+      <c r="BT59" t="n">
+        <v>2237</v>
+      </c>
+      <c r="BU59" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="60">
@@ -13392,6 +13750,12 @@
         <is>
           <t>2-s2.0-84942582745</t>
         </is>
+      </c>
+      <c r="BT60" t="n">
+        <v>1317</v>
+      </c>
+      <c r="BU60" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="61">
@@ -13610,6 +13974,12 @@
           <t>2-s2.0-84929452464</t>
         </is>
       </c>
+      <c r="BT61" t="n">
+        <v>2020</v>
+      </c>
+      <c r="BU61" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -13811,6 +14181,12 @@
           <t>2-s2.0-84923169271</t>
         </is>
       </c>
+      <c r="BT62" t="n">
+        <v>1220</v>
+      </c>
+      <c r="BU62" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -14028,6 +14404,12 @@
           <t>2-s2.0-84919918262</t>
         </is>
       </c>
+      <c r="BT63" t="n">
+        <v>2134</v>
+      </c>
+      <c r="BU63" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -14251,6 +14633,12 @@
           <t>2-s2.0-84947490752</t>
         </is>
       </c>
+      <c r="BT64" t="n">
+        <v>2259</v>
+      </c>
+      <c r="BU64" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -14469,6 +14857,12 @@
         <is>
           <t>2-s2.0-84942915547</t>
         </is>
+      </c>
+      <c r="BT65" t="n">
+        <v>2494</v>
+      </c>
+      <c r="BU65" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="66">
@@ -14687,6 +15081,12 @@
           <t>2-s2.0-84929119146</t>
         </is>
       </c>
+      <c r="BT66" t="n">
+        <v>1612</v>
+      </c>
+      <c r="BU66" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -14892,6 +15292,12 @@
           <t>2-s2.0-84941650474</t>
         </is>
       </c>
+      <c r="BT67" t="n">
+        <v>1512</v>
+      </c>
+      <c r="BU67" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -15115,6 +15521,12 @@
           <t>2-s2.0-84928107146</t>
         </is>
       </c>
+      <c r="BT68" t="n">
+        <v>1214</v>
+      </c>
+      <c r="BU68" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -15328,6 +15740,12 @@
           <t>2-s2.0-84921308387</t>
         </is>
       </c>
+      <c r="BT69" t="n">
+        <v>2020</v>
+      </c>
+      <c r="BU69" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -15541,6 +15959,12 @@
           <t>2-s2.0-84923106702</t>
         </is>
       </c>
+      <c r="BT70" t="n">
+        <v>1146</v>
+      </c>
+      <c r="BU70" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -15756,6 +16180,12 @@
           <t>2-s2.0-84951922828</t>
         </is>
       </c>
+      <c r="BT71" t="n">
+        <v>1707</v>
+      </c>
+      <c r="BU71" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -15973,6 +16403,12 @@
           <t>2-s2.0-84945959743</t>
         </is>
       </c>
+      <c r="BT72" t="n">
+        <v>1858</v>
+      </c>
+      <c r="BU72" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -16194,6 +16630,12 @@
           <t>2-s2.0-84947264556</t>
         </is>
       </c>
+      <c r="BT73" t="n">
+        <v>2128</v>
+      </c>
+      <c r="BU73" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -16413,6 +16855,12 @@
           <t>2-s2.0-84955670073</t>
         </is>
       </c>
+      <c r="BT74" t="n">
+        <v>2194</v>
+      </c>
+      <c r="BU74" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -16647,6 +17095,12 @@
         <is>
           <t>2-s2.0-84947493739</t>
         </is>
+      </c>
+      <c r="BT75" t="n">
+        <v>1165</v>
+      </c>
+      <c r="BU75" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="76">
@@ -16849,6 +17303,12 @@
           <t>2-s2.0-84934997326</t>
         </is>
       </c>
+      <c r="BT76" t="n">
+        <v>1389</v>
+      </c>
+      <c r="BU76" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -17062,6 +17522,12 @@
           <t>2-s2.0-84935020456</t>
         </is>
       </c>
+      <c r="BT77" t="n">
+        <v>2120</v>
+      </c>
+      <c r="BU77" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -17279,6 +17745,12 @@
           <t>2-s2.0-84913587402</t>
         </is>
       </c>
+      <c r="BT78" t="n">
+        <v>1891</v>
+      </c>
+      <c r="BU78" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -17493,6 +17965,12 @@
         <is>
           <t>2-s2.0-84940571504</t>
         </is>
+      </c>
+      <c r="BT79" t="n">
+        <v>1197</v>
+      </c>
+      <c r="BU79" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="80">
@@ -17705,6 +18183,12 @@
           <t>2-s2.0-84929402156</t>
         </is>
       </c>
+      <c r="BT80" t="n">
+        <v>1681</v>
+      </c>
+      <c r="BU80" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -17922,6 +18406,12 @@
           <t>2-s2.0-84929576447</t>
         </is>
       </c>
+      <c r="BT81" t="n">
+        <v>2129</v>
+      </c>
+      <c r="BU81" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -18131,6 +18621,12 @@
           <t>2-s2.0-84923346228</t>
         </is>
       </c>
+      <c r="BT82" t="n">
+        <v>1045</v>
+      </c>
+      <c r="BU82" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -18365,6 +18861,12 @@
         <is>
           <t>2-s2.0-84947495395</t>
         </is>
+      </c>
+      <c r="BT83" t="n">
+        <v>1791</v>
+      </c>
+      <c r="BU83" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="84">
@@ -18582,6 +19084,12 @@
         <is>
           <t>2-s2.0-84940505370</t>
         </is>
+      </c>
+      <c r="BT84" t="n">
+        <v>2386</v>
+      </c>
+      <c r="BU84" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="85">
@@ -18800,6 +19308,12 @@
           <t>2-s2.0-84938862290</t>
         </is>
       </c>
+      <c r="BT85" t="n">
+        <v>1520</v>
+      </c>
+      <c r="BU85" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -19015,6 +19529,12 @@
           <t>2-s2.0-84936877190</t>
         </is>
       </c>
+      <c r="BT86" t="n">
+        <v>1014</v>
+      </c>
+      <c r="BU86" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -19216,6 +19736,12 @@
           <t>2-s2.0-84925046498</t>
         </is>
       </c>
+      <c r="BT87" t="n">
+        <v>2006</v>
+      </c>
+      <c r="BU87" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -19435,6 +19961,12 @@
           <t>2-s2.0-84925064806</t>
         </is>
       </c>
+      <c r="BT88" t="n">
+        <v>1187</v>
+      </c>
+      <c r="BU88" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -19652,6 +20184,12 @@
           <t>2-s2.0-84925666910</t>
         </is>
       </c>
+      <c r="BT89" t="n">
+        <v>1674</v>
+      </c>
+      <c r="BU89" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -19861,6 +20399,12 @@
           <t>2-s2.0-84924664130</t>
         </is>
       </c>
+      <c r="BT90" t="n">
+        <v>1041</v>
+      </c>
+      <c r="BU90" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -20078,6 +20622,12 @@
           <t>2-s2.0-84929333128</t>
         </is>
       </c>
+      <c r="BT91" t="n">
+        <v>1090</v>
+      </c>
+      <c r="BU91" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -20301,6 +20851,12 @@
           <t>2-s2.0-84928106740</t>
         </is>
       </c>
+      <c r="BT92" t="n">
+        <v>1207</v>
+      </c>
+      <c r="BU92" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -20508,6 +21064,12 @@
           <t>2-s2.0-84922673743</t>
         </is>
       </c>
+      <c r="BT93" t="n">
+        <v>1183</v>
+      </c>
+      <c r="BU93" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -20719,6 +21281,12 @@
           <t>2-s2.0-84920972406</t>
         </is>
       </c>
+      <c r="BT94" t="n">
+        <v>2058</v>
+      </c>
+      <c r="BU94" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -20930,6 +21498,12 @@
           <t>2-s2.0-84942521707</t>
         </is>
       </c>
+      <c r="BT95" t="n">
+        <v>1686</v>
+      </c>
+      <c r="BU95" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -21153,6 +21727,12 @@
           <t>2-s2.0-84947493621</t>
         </is>
       </c>
+      <c r="BT96" t="n">
+        <v>1697</v>
+      </c>
+      <c r="BU96" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -21367,6 +21947,12 @@
         <is>
           <t>2-s2.0-84947274458</t>
         </is>
+      </c>
+      <c r="BT97" t="n">
+        <v>2139</v>
+      </c>
+      <c r="BU97" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="98">
@@ -21585,6 +22171,12 @@
           <t>2-s2.0-84935501159</t>
         </is>
       </c>
+      <c r="BT98" t="n">
+        <v>1853</v>
+      </c>
+      <c r="BU98" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -21802,6 +22394,12 @@
           <t>2-s2.0-84937045702</t>
         </is>
       </c>
+      <c r="BT99" t="n">
+        <v>1142</v>
+      </c>
+      <c r="BU99" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -22019,6 +22617,12 @@
           <t>2-s2.0-84929298448</t>
         </is>
       </c>
+      <c r="BT100" t="n">
+        <v>984</v>
+      </c>
+      <c r="BU100" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -22228,6 +22832,12 @@
           <t>2-s2.0-84938598064</t>
         </is>
       </c>
+      <c r="BT101" t="n">
+        <v>1424</v>
+      </c>
+      <c r="BU101" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -22439,6 +23049,12 @@
           <t>2-s2.0-84911425913</t>
         </is>
       </c>
+      <c r="BT102" t="n">
+        <v>2529</v>
+      </c>
+      <c r="BU102" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -22658,6 +23274,12 @@
           <t>2-s2.0-84947495033</t>
         </is>
       </c>
+      <c r="BT103" t="n">
+        <v>969</v>
+      </c>
+      <c r="BU103" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -22869,6 +23491,12 @@
           <t>2-s2.0-84956705499</t>
         </is>
       </c>
+      <c r="BT104" t="n">
+        <v>1221</v>
+      </c>
+      <c r="BU104" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -23092,6 +23720,12 @@
           <t>2-s2.0-84947492060</t>
         </is>
       </c>
+      <c r="BT105" t="n">
+        <v>1483</v>
+      </c>
+      <c r="BU105" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -23314,6 +23948,12 @@
         <is>
           <t>2-s2.0-84947487060</t>
         </is>
+      </c>
+      <c r="BT106" t="n">
+        <v>1318</v>
+      </c>
+      <c r="BU106" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="107">
@@ -23534,6 +24174,12 @@
           <t>2-s2.0-84934902602</t>
         </is>
       </c>
+      <c r="BT107" t="n">
+        <v>1876</v>
+      </c>
+      <c r="BU107" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -23751,6 +24397,12 @@
           <t>2-s2.0-84930197881</t>
         </is>
       </c>
+      <c r="BT108" t="n">
+        <v>1213</v>
+      </c>
+      <c r="BU108" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -23960,6 +24612,12 @@
           <t>2-s2.0-84928680670</t>
         </is>
       </c>
+      <c r="BT109" t="n">
+        <v>1443</v>
+      </c>
+      <c r="BU109" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -24177,6 +24835,12 @@
           <t>2-s2.0-84926435739</t>
         </is>
       </c>
+      <c r="BT110" t="n">
+        <v>1610</v>
+      </c>
+      <c r="BU110" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -24396,6 +25060,12 @@
           <t>2-s2.0-84925363095</t>
         </is>
       </c>
+      <c r="BT111" t="n">
+        <v>1361</v>
+      </c>
+      <c r="BU111" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -24599,6 +25269,12 @@
           <t>2-s2.0-84923025785</t>
         </is>
       </c>
+      <c r="BT112" t="n">
+        <v>2865</v>
+      </c>
+      <c r="BU112" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -24810,6 +25486,12 @@
           <t>2-s2.0-84916934635</t>
         </is>
       </c>
+      <c r="BT113" t="n">
+        <v>1524</v>
+      </c>
+      <c r="BU113" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -25048,6 +25730,12 @@
         <is>
           <t>2-s2.0-84947492280</t>
         </is>
+      </c>
+      <c r="BT114" t="n">
+        <v>1385</v>
+      </c>
+      <c r="BU114" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="115">
@@ -25267,6 +25955,12 @@
         <is>
           <t>2-s2.0-84956604239</t>
         </is>
+      </c>
+      <c r="BT115" t="n">
+        <v>832</v>
+      </c>
+      <c r="BU115" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="116">
@@ -25473,6 +26167,12 @@
           <t>2-s2.0-84939217809</t>
         </is>
       </c>
+      <c r="BT116" t="n">
+        <v>1734</v>
+      </c>
+      <c r="BU116" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -25690,6 +26390,12 @@
           <t>2-s2.0-84932625594</t>
         </is>
       </c>
+      <c r="BT117" t="n">
+        <v>1709</v>
+      </c>
+      <c r="BU117" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -25899,6 +26605,12 @@
           <t>2-s2.0-84929497562</t>
         </is>
       </c>
+      <c r="BT118" t="n">
+        <v>1315</v>
+      </c>
+      <c r="BU118" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -26116,6 +26828,12 @@
           <t>2-s2.0-84911408061</t>
         </is>
       </c>
+      <c r="BT119" t="n">
+        <v>1537</v>
+      </c>
+      <c r="BU119" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -26329,6 +27047,12 @@
           <t>2-s2.0-84946404830</t>
         </is>
       </c>
+      <c r="BT120" t="n">
+        <v>1961</v>
+      </c>
+      <c r="BU120" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -26544,6 +27268,12 @@
           <t>2-s2.0-84947494291</t>
         </is>
       </c>
+      <c r="BT121" t="n">
+        <v>2576</v>
+      </c>
+      <c r="BU121" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -26757,6 +27487,12 @@
           <t>2-s2.0-84940522366</t>
         </is>
       </c>
+      <c r="BT122" t="n">
+        <v>1683</v>
+      </c>
+      <c r="BU122" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -26968,6 +27704,12 @@
           <t>2-s2.0-84947491574</t>
         </is>
       </c>
+      <c r="BT123" t="n">
+        <v>1388</v>
+      </c>
+      <c r="BU123" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -27182,6 +27924,12 @@
         <is>
           <t>2-s2.0-84960294664</t>
         </is>
+      </c>
+      <c r="BT124" t="n">
+        <v>1843</v>
+      </c>
+      <c r="BU124" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="125">
@@ -27392,6 +28140,12 @@
           <t>2-s2.0-84938813211</t>
         </is>
       </c>
+      <c r="BT125" t="n">
+        <v>1254</v>
+      </c>
+      <c r="BU125" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -27599,6 +28353,12 @@
           <t>2-s2.0-84937956515</t>
         </is>
       </c>
+      <c r="BT126" t="n">
+        <v>1872</v>
+      </c>
+      <c r="BU126" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -27808,6 +28568,12 @@
           <t>2-s2.0-84933525366</t>
         </is>
       </c>
+      <c r="BT127" t="n">
+        <v>2171</v>
+      </c>
+      <c r="BU127" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -28021,6 +28787,12 @@
           <t>2-s2.0-84930937384</t>
         </is>
       </c>
+      <c r="BT128" t="n">
+        <v>1198</v>
+      </c>
+      <c r="BU128" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -28232,6 +29004,12 @@
           <t>2-s2.0-84928668989</t>
         </is>
       </c>
+      <c r="BT129" t="n">
+        <v>1324</v>
+      </c>
+      <c r="BU129" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -28437,6 +29215,12 @@
           <t>2-s2.0-84926199289</t>
         </is>
       </c>
+      <c r="BT130" t="n">
+        <v>1680</v>
+      </c>
+      <c r="BU130" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -28654,6 +29438,12 @@
           <t>2-s2.0-84923008578</t>
         </is>
       </c>
+      <c r="BT131" t="n">
+        <v>1460</v>
+      </c>
+      <c r="BU131" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -28871,6 +29661,12 @@
           <t>2-s2.0-84911910955</t>
         </is>
       </c>
+      <c r="BT132" t="n">
+        <v>1487</v>
+      </c>
+      <c r="BU132" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -29076,6 +29872,12 @@
           <t>2-s2.0-84913539252</t>
         </is>
       </c>
+      <c r="BT133" t="n">
+        <v>1442</v>
+      </c>
+      <c r="BU133" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -29301,6 +30103,12 @@
           <t>2-s2.0-84947496245</t>
         </is>
       </c>
+      <c r="BT134" t="n">
+        <v>1405</v>
+      </c>
+      <c r="BU134" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -29524,6 +30332,12 @@
           <t>2-s2.0-84943227485</t>
         </is>
       </c>
+      <c r="BT135" t="n">
+        <v>1048</v>
+      </c>
+      <c r="BU135" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -29746,6 +30560,12 @@
         <is>
           <t>2-s2.0-84947489725</t>
         </is>
+      </c>
+      <c r="BT136" t="n">
+        <v>1291</v>
+      </c>
+      <c r="BU136" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="137">
@@ -29948,6 +30768,12 @@
           <t>2-s2.0-84928350476</t>
         </is>
       </c>
+      <c r="BT137" t="n">
+        <v>1336</v>
+      </c>
+      <c r="BU137" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -30161,6 +30987,12 @@
           <t>2-s2.0-84925115584</t>
         </is>
       </c>
+      <c r="BT138" t="n">
+        <v>1231</v>
+      </c>
+      <c r="BU138" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -30380,6 +31212,12 @@
           <t>2-s2.0-84925092472</t>
         </is>
       </c>
+      <c r="BT139" t="n">
+        <v>1578</v>
+      </c>
+      <c r="BU139" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -30599,6 +31437,12 @@
           <t>2-s2.0-84911446272</t>
         </is>
       </c>
+      <c r="BT140" t="n">
+        <v>3008</v>
+      </c>
+      <c r="BU140" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -30810,6 +31654,12 @@
           <t>2-s2.0-84937945309</t>
         </is>
       </c>
+      <c r="BT141" t="n">
+        <v>1147</v>
+      </c>
+      <c r="BU141" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -31033,6 +31883,12 @@
           <t>2-s2.0-84929402116</t>
         </is>
       </c>
+      <c r="BT142" t="n">
+        <v>1397</v>
+      </c>
+      <c r="BU142" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -31242,6 +32098,12 @@
           <t>2-s2.0-84928316119</t>
         </is>
       </c>
+      <c r="BT143" t="n">
+        <v>1754</v>
+      </c>
+      <c r="BU143" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -31443,6 +32305,12 @@
           <t>2-s2.0-84925941395</t>
         </is>
       </c>
+      <c r="BT144" t="n">
+        <v>1500</v>
+      </c>
+      <c r="BU144" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -31660,6 +32528,12 @@
           <t>2-s2.0-84923333938</t>
         </is>
       </c>
+      <c r="BT145" t="n">
+        <v>1543</v>
+      </c>
+      <c r="BU145" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -31877,6 +32751,12 @@
           <t>2-s2.0-84916877703</t>
         </is>
       </c>
+      <c r="BT146" t="n">
+        <v>1518</v>
+      </c>
+      <c r="BU146" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -32078,6 +32958,12 @@
           <t>2-s2.0-84919905679</t>
         </is>
       </c>
+      <c r="BT147" t="n">
+        <v>1413</v>
+      </c>
+      <c r="BU147" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -32297,6 +33183,12 @@
           <t>2-s2.0-84945578277</t>
         </is>
       </c>
+      <c r="BT148" t="n">
+        <v>1247</v>
+      </c>
+      <c r="BU148" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -32514,6 +33406,12 @@
           <t>2-s2.0-84946595133</t>
         </is>
       </c>
+      <c r="BT149" t="n">
+        <v>1318</v>
+      </c>
+      <c r="BU149" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -32729,6 +33627,12 @@
           <t>2-s2.0-84947485937</t>
         </is>
       </c>
+      <c r="BT150" t="n">
+        <v>1029</v>
+      </c>
+      <c r="BU150" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -32948,6 +33852,12 @@
           <t>2-s2.0-84947275416</t>
         </is>
       </c>
+      <c r="BT151" t="n">
+        <v>1163</v>
+      </c>
+      <c r="BU151" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -33162,6 +34072,12 @@
         <is>
           <t>2-s2.0-84947495277</t>
         </is>
+      </c>
+      <c r="BT152" t="n">
+        <v>1444</v>
+      </c>
+      <c r="BU152" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="153">
@@ -33380,6 +34296,12 @@
           <t>2-s2.0-84932644660</t>
         </is>
       </c>
+      <c r="BT153" t="n">
+        <v>977</v>
+      </c>
+      <c r="BU153" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -33589,6 +34511,12 @@
           <t>2-s2.0-84930935693</t>
         </is>
       </c>
+      <c r="BT154" t="n">
+        <v>1378</v>
+      </c>
+      <c r="BU154" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -33798,6 +34726,12 @@
           <t>2-s2.0-84924053878</t>
         </is>
       </c>
+      <c r="BT155" t="n">
+        <v>1406</v>
+      </c>
+      <c r="BU155" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -34015,6 +34949,12 @@
           <t>2-s2.0-84922989439</t>
         </is>
       </c>
+      <c r="BT156" t="n">
+        <v>1436</v>
+      </c>
+      <c r="BU156" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -34236,6 +35176,12 @@
           <t>2-s2.0-84941278382</t>
         </is>
       </c>
+      <c r="BT157" t="n">
+        <v>932</v>
+      </c>
+      <c r="BU157" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -34454,6 +35400,12 @@
         <is>
           <t>2-s2.0-84955676121</t>
         </is>
+      </c>
+      <c r="BT158" t="n">
+        <v>746</v>
+      </c>
+      <c r="BU158" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="159">
@@ -34672,6 +35624,12 @@
           <t>2-s2.0-84938811414</t>
         </is>
       </c>
+      <c r="BT159" t="n">
+        <v>1791</v>
+      </c>
+      <c r="BU159" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -34881,6 +35839,12 @@
           <t>2-s2.0-84933529330</t>
         </is>
       </c>
+      <c r="BT160" t="n">
+        <v>2514</v>
+      </c>
+      <c r="BU160" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -35108,6 +36072,12 @@
           <t>2-s2.0-84947489302</t>
         </is>
       </c>
+      <c r="BT161" t="n">
+        <v>695</v>
+      </c>
+      <c r="BU161" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -35322,6 +36292,12 @@
         <is>
           <t>2-s2.0-84947496230</t>
         </is>
+      </c>
+      <c r="BT162" t="n">
+        <v>1044</v>
+      </c>
+      <c r="BU162" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="163">
@@ -35524,6 +36500,12 @@
           <t>2-s2.0-84937028077</t>
         </is>
       </c>
+      <c r="BT163" t="n">
+        <v>1569</v>
+      </c>
+      <c r="BU163" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -35733,6 +36715,12 @@
           <t>2-s2.0-84931272960</t>
         </is>
       </c>
+      <c r="BT164" t="n">
+        <v>1498</v>
+      </c>
+      <c r="BU164" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -35950,6 +36938,12 @@
           <t>2-s2.0-84929466831</t>
         </is>
       </c>
+      <c r="BT165" t="n">
+        <v>1109</v>
+      </c>
+      <c r="BU165" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -36167,6 +37161,12 @@
           <t>2-s2.0-84929575395</t>
         </is>
       </c>
+      <c r="BT166" t="n">
+        <v>1222</v>
+      </c>
+      <c r="BU166" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -36384,6 +37384,12 @@
           <t>2-s2.0-84938521517</t>
         </is>
       </c>
+      <c r="BT167" t="n">
+        <v>2434</v>
+      </c>
+      <c r="BU167" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -36598,6 +37604,12 @@
         <is>
           <t>2-s2.0-84947492252</t>
         </is>
+      </c>
+      <c r="BT168" t="n">
+        <v>725</v>
+      </c>
+      <c r="BU168" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="169">
@@ -36800,6 +37812,12 @@
           <t>2-s2.0-84932607177</t>
         </is>
       </c>
+      <c r="BT169" t="n">
+        <v>946</v>
+      </c>
+      <c r="BU169" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -37005,6 +38023,12 @@
           <t>2-s2.0-84930203306</t>
         </is>
       </c>
+      <c r="BT170" t="n">
+        <v>2025</v>
+      </c>
+      <c r="BU170" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -37224,6 +38248,12 @@
           <t>2-s2.0-84947492681</t>
         </is>
       </c>
+      <c r="BT171" t="n">
+        <v>737</v>
+      </c>
+      <c r="BU171" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -37445,6 +38475,12 @@
           <t>2-s2.0-84941272792</t>
         </is>
       </c>
+      <c r="BT172" t="n">
+        <v>1370</v>
+      </c>
+      <c r="BU172" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -37669,6 +38705,12 @@
         <is>
           <t>2-s2.0-84941758277</t>
         </is>
+      </c>
+      <c r="BT173" t="n">
+        <v>1406</v>
+      </c>
+      <c r="BU173" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="174">
@@ -37879,6 +38921,12 @@
           <t>2-s2.0-84939615823</t>
         </is>
       </c>
+      <c r="BT174" t="n">
+        <v>1220</v>
+      </c>
+      <c r="BU174" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -38088,6 +39136,12 @@
           <t>2-s2.0-84938570620</t>
         </is>
       </c>
+      <c r="BT175" t="n">
+        <v>930</v>
+      </c>
+      <c r="BU175" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -38305,6 +39359,12 @@
           <t>2-s2.0-84933039055</t>
         </is>
       </c>
+      <c r="BT176" t="n">
+        <v>696</v>
+      </c>
+      <c r="BU176" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -38518,6 +39578,12 @@
           <t>2-s2.0-84922740465</t>
         </is>
       </c>
+      <c r="BT177" t="n">
+        <v>1645</v>
+      </c>
+      <c r="BU177" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -38728,6 +39794,12 @@
         <is>
           <t>2-s2.0-84910604861</t>
         </is>
+      </c>
+      <c r="BT178" t="n">
+        <v>1366</v>
+      </c>
+      <c r="BU178" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="179">
@@ -38915,6 +39987,12 @@
         <is>
           <t>2-s2.0-84947487215</t>
         </is>
+      </c>
+      <c r="BT179" t="n">
+        <v>1485</v>
+      </c>
+      <c r="BU179" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="180">
@@ -39103,6 +40181,12 @@
           <t>2-s2.0-84947489257</t>
         </is>
       </c>
+      <c r="BT180" t="n">
+        <v>303</v>
+      </c>
+      <c r="BU180" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -39318,6 +40402,12 @@
           <t>2-s2.0-84947246501</t>
         </is>
       </c>
+      <c r="BT181" t="n">
+        <v>792</v>
+      </c>
+      <c r="BU181" t="n">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
